--- a/Documentation/Annexe/Journal de travail/Journal_de_travaille_Antoine-Roulin.xlsx
+++ b/Documentation/Annexe/Journal de travail/Journal_de_travaille_Antoine-Roulin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BatailleNavale\BatailleNavale\Documentation\Journal de travail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BatailleNavale\BatailleNavale\Documentation\Annexe\Journal de travail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DD9E5E-E5F1-4E18-9D8A-D38BFF538899}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDFB7B4-C6BA-4AC8-95D8-3BCA4105B0F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="2715" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7245" yWindow="3060" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>DATE</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Création de 6 maps et la fonctionnalité de la séléction aléatoire d'une des 6 maps</t>
+  </si>
+  <si>
+    <t>Début de la rédaction de la documentation du projet</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +524,7 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="D2:D23" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D24" si="0">C2-B2</f>
         <v>3.125E-2</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -933,11 +936,22 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="5"/>
+      <c r="A24" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">

--- a/Documentation/Annexe/Journal de travail/Journal_de_travaille_Antoine-Roulin.xlsx
+++ b/Documentation/Annexe/Journal de travail/Journal_de_travaille_Antoine-Roulin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BatailleNavale\BatailleNavale\Documentation\Annexe\Journal de travail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDFB7B4-C6BA-4AC8-95D8-3BCA4105B0F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6383B249-0544-4971-84A8-E460C9E7CFB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7245" yWindow="3060" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5850" yWindow="2100" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>DATE</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Début de la rédaction de la documentation du projet</t>
+  </si>
+  <si>
+    <t>Suite de la rédaction de la documentation du projet, modification d'un toute petite partie du code, réalisation de la structure du projet, rédaction du README.md et modification des maquettes</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +527,7 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="D2:D24" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D25" si="0">C2-B2</f>
         <v>3.125E-2</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -954,12 +957,23 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="5"/>
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.34375</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">

--- a/Documentation/Annexe/Journal de travail/Journal_de_travaille_Antoine-Roulin.xlsx
+++ b/Documentation/Annexe/Journal de travail/Journal_de_travaille_Antoine-Roulin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BatailleNavale\BatailleNavale\Documentation\Annexe\Journal de travail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6383B249-0544-4971-84A8-E460C9E7CFB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538F250B-AAD5-42B8-9D34-A78E18256FBE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5850" yWindow="2100" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>DATE</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>Suite de la rédaction de la documentation du projet, modification d'un toute petite partie du code, réalisation de la structure du projet, rédaction du README.md et modification des maquettes</t>
+  </si>
+  <si>
+    <t>Suite de la réalisation de la documentation</t>
+  </si>
+  <si>
+    <t>Revue finale de la documentation avant le rendu</t>
   </si>
 </sst>
 </file>
@@ -485,7 +491,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +533,7 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="D2:D25" si="0">C2-B2</f>
+        <f t="shared" ref="D2:D27" si="0">C2-B2</f>
         <v>3.125E-2</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -977,19 +983,41 @@
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="5"/>
+      <c r="A26" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>1.736111111111116E-2</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="5"/>
+      <c r="A27" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">

--- a/Documentation/Annexe/Journal de travail/Journal_de_travaille_Antoine-Roulin.xlsx
+++ b/Documentation/Annexe/Journal de travail/Journal_de_travaille_Antoine-Roulin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BatailleNavale\BatailleNavale\Documentation\Annexe\Journal de travail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538F250B-AAD5-42B8-9D34-A78E18256FBE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD9607C-AD02-444A-8C41-4A6CFFB745B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5850" yWindow="2100" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,14 +1006,14 @@
         <v>43930</v>
       </c>
       <c r="B27" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="C27" s="7">
         <v>0.63888888888888895</v>
       </c>
-      <c r="C27" s="7">
-        <v>0.70486111111111116</v>
-      </c>
       <c r="D27" s="4">
         <f t="shared" si="0"/>
-        <v>6.597222222222221E-2</v>
+        <v>7.6388888888888951E-2</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>33</v>
